--- a/example_project/vrm_cfg.xlsx
+++ b/example_project/vrm_cfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hzhou\OneDrive - ANSYS, Inc\PyCharm_project\DCIR_Automation_github\test_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ansys-my.sharepoint.com/personal/hui_zhou_ansys_com/Documents/PyCharm_project/DCIR_Automation_github/example_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E5755-A760-4ACD-9986-057D23D05106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2E2E5755-A760-4ACD-9986-057D23D05106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0DAFE2A-B640-4897-BE63-137301B3E31A}"/>
   <bookViews>
-    <workbookView xWindow="17410" yWindow="2900" windowWidth="18420" windowHeight="15460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16560" yWindow="6460" windowWidth="13070" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic_info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>edb_version</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>Q3B2</t>
+  </si>
+  <si>
+    <t>J1A6</t>
+  </si>
+  <si>
+    <t>J1A4</t>
+  </si>
+  <si>
+    <t>J4A3</t>
   </si>
 </sst>
 </file>
@@ -173,6 +185,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,9 +544,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -548,6 +566,38 @@
       </c>
       <c r="B2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -635,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
